--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,12 +46,12 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
@@ -61,9 +61,6 @@
     <t>war</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>shame</t>
   </si>
   <si>
@@ -76,136 +73,157 @@
     <t>panic</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>risk</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>support</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>increase</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>give</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
     <t>available</t>
   </si>
   <si>
+    <t>increased</t>
+  </si>
+  <si>
     <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
 </sst>
 </file>
@@ -563,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,7 +592,7 @@
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -706,13 +724,13 @@
         <v>29</v>
       </c>
       <c r="K4">
-        <v>0.9787234042553191</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -724,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -732,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8648648648648649</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,13 +774,13 @@
         <v>30</v>
       </c>
       <c r="K5">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8620689655172413</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>31</v>
@@ -856,13 +874,13 @@
         <v>32</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -882,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8458904109589042</v>
+        <v>0.8424657534246576</v>
       </c>
       <c r="C8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K8">
-        <v>0.9017857142857143</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L8">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -956,13 +974,13 @@
         <v>34</v>
       </c>
       <c r="K9">
-        <v>0.9</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="L9">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="M9">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7948717948717948</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K10">
-        <v>0.8943661971830986</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="L10">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="M10">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1024,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1032,7 +1050,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7837837837837838</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C11">
         <v>29</v>
@@ -1050,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K11">
-        <v>0.8823529411764706</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1082,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7435897435897436</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K12">
-        <v>0.8780487804878049</v>
+        <v>0.8828125</v>
       </c>
       <c r="L12">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="M12">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1132,13 +1150,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6944444444444444</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>215</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K13">
-        <v>0.875</v>
+        <v>0.8780487804878049</v>
       </c>
       <c r="L13">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="M13">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1174,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1182,13 +1200,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5833333333333334</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C14">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K14">
-        <v>0.8448275862068966</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="L14">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M14">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1224,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1232,13 +1250,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5570469798657718</v>
+        <v>0.5436241610738255</v>
       </c>
       <c r="C15">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D15">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1250,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K15">
-        <v>0.839622641509434</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="L15">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M15">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1274,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1282,13 +1300,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5466666666666666</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C16">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1300,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K16">
-        <v>0.82</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L16">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1324,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1332,13 +1350,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5098039215686274</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1350,19 +1368,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K17">
-        <v>0.8125</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L17">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="M17">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1374,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1382,13 +1400,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4111111111111111</v>
+        <v>0.4025974025974026</v>
       </c>
       <c r="C18">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1400,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K18">
-        <v>0.8095238095238095</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L18">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1424,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1432,13 +1450,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4021164021164021</v>
+        <v>0.3</v>
       </c>
       <c r="C19">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1450,19 +1468,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K19">
-        <v>0.8067885117493473</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L19">
-        <v>309</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>309</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1474,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>74</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1482,13 +1500,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3766233766233766</v>
+        <v>0.2658730158730159</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1500,19 +1518,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K20">
-        <v>0.7941176470588235</v>
+        <v>0.8</v>
       </c>
       <c r="L20">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="M20">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1524,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1532,13 +1550,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2380952380952381</v>
+        <v>0.1260053619302949</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D21">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1550,19 +1568,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>192</v>
+        <v>326</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K21">
-        <v>0.776595744680851</v>
+        <v>0.7989556135770235</v>
       </c>
       <c r="L21">
-        <v>73</v>
+        <v>306</v>
       </c>
       <c r="M21">
-        <v>73</v>
+        <v>306</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1574,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1582,13 +1600,13 @@
         <v>47</v>
       </c>
       <c r="K22">
-        <v>0.7384615384615385</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L22">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M22">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1600,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1608,13 +1626,13 @@
         <v>48</v>
       </c>
       <c r="K23">
-        <v>0.7152542372881356</v>
+        <v>0.776595744680851</v>
       </c>
       <c r="L23">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="M23">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1626,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1634,13 +1652,13 @@
         <v>49</v>
       </c>
       <c r="K24">
-        <v>0.7083333333333334</v>
+        <v>0.76</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1652,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1660,13 +1678,13 @@
         <v>50</v>
       </c>
       <c r="K25">
-        <v>0.6944444444444444</v>
+        <v>0.735593220338983</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1678,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1686,13 +1704,13 @@
         <v>51</v>
       </c>
       <c r="K26">
-        <v>0.6823529411764706</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L26">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c r="M26">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1704,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1712,13 +1730,13 @@
         <v>52</v>
       </c>
       <c r="K27">
-        <v>0.6736401673640168</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L27">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1730,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1738,13 +1756,13 @@
         <v>53</v>
       </c>
       <c r="K28">
-        <v>0.6511627906976745</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1756,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1764,13 +1782,13 @@
         <v>54</v>
       </c>
       <c r="K29">
-        <v>0.6444444444444445</v>
+        <v>0.6794117647058824</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>231</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>231</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1782,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1790,7 +1808,7 @@
         <v>55</v>
       </c>
       <c r="K30">
-        <v>0.6285714285714286</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L30">
         <v>44</v>
@@ -1808,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1816,13 +1834,13 @@
         <v>56</v>
       </c>
       <c r="K31">
-        <v>0.6179775280898876</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="L31">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M31">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1834,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1842,13 +1860,13 @@
         <v>57</v>
       </c>
       <c r="K32">
-        <v>0.5957446808510638</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1860,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1868,13 +1886,13 @@
         <v>58</v>
       </c>
       <c r="K33">
-        <v>0.5616438356164384</v>
+        <v>0.65</v>
       </c>
       <c r="L33">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1886,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1894,13 +1912,13 @@
         <v>59</v>
       </c>
       <c r="K34">
-        <v>0.5384615384615384</v>
+        <v>0.6401673640167364</v>
       </c>
       <c r="L34">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="M34">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1912,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1920,25 +1938,25 @@
         <v>60</v>
       </c>
       <c r="K35">
-        <v>0.46875</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L35">
+        <v>48</v>
+      </c>
+      <c r="M35">
+        <v>48</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>30</v>
-      </c>
-      <c r="M35">
-        <v>30</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>34</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1946,25 +1964,25 @@
         <v>61</v>
       </c>
       <c r="K36">
-        <v>0.459016393442623</v>
+        <v>0.6</v>
       </c>
       <c r="L36">
+        <v>42</v>
+      </c>
+      <c r="M36">
+        <v>42</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>28</v>
-      </c>
-      <c r="M36">
-        <v>28</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>33</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1972,13 +1990,13 @@
         <v>62</v>
       </c>
       <c r="K37">
-        <v>0.423728813559322</v>
+        <v>0.5753424657534246</v>
       </c>
       <c r="L37">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M37">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1990,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1998,13 +2016,13 @@
         <v>63</v>
       </c>
       <c r="K38">
-        <v>0.09569377990430622</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="L38">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M38">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2016,7 +2034,163 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>378</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K39">
+        <v>0.515625</v>
+      </c>
+      <c r="L39">
+        <v>33</v>
+      </c>
+      <c r="M39">
+        <v>33</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K40">
+        <v>0.4576271186440678</v>
+      </c>
+      <c r="L40">
+        <v>27</v>
+      </c>
+      <c r="M40">
+        <v>27</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41">
+        <v>0.3472222222222222</v>
+      </c>
+      <c r="L41">
+        <v>25</v>
+      </c>
+      <c r="M41">
+        <v>25</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K42">
+        <v>0.1626794258373206</v>
+      </c>
+      <c r="L42">
+        <v>68</v>
+      </c>
+      <c r="M42">
+        <v>68</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K43">
+        <v>0.1201923076923077</v>
+      </c>
+      <c r="L43">
+        <v>50</v>
+      </c>
+      <c r="M43">
+        <v>50</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K44">
+        <v>0.03803131991051454</v>
+      </c>
+      <c r="L44">
+        <v>34</v>
+      </c>
+      <c r="M44">
+        <v>34</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>860</v>
       </c>
     </row>
   </sheetData>
